--- a/data/state_election_results/ohio_president.xlsx
+++ b/data/state_election_results/ohio_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC5B597-A69E-F449-A469-8CF2F4639B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941BEE39-3932-0245-92D0-B2003A33BB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18480" yWindow="2700" windowWidth="17320" windowHeight="16940" xr2:uid="{CDFD9DC9-40E4-654E-BF7F-B2DE6A220150}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>trump.votes</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>Wyandot</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -363,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -680,32 +680,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B778A3-78A3-2C4D-901A-57E576363DC6}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A89"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>9870</v>
@@ -722,7 +720,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>33116</v>
@@ -739,7 +737,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>19407</v>
@@ -756,7 +754,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>26890</v>
@@ -773,7 +771,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>10862</v>
@@ -790,7 +788,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>20798</v>
@@ -807,7 +805,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>23560</v>
@@ -824,7 +822,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>16480</v>
@@ -841,7 +839,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>114392</v>
@@ -858,7 +856,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>10745</v>
@@ -875,7 +873,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>14589</v>
@@ -892,7 +890,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>39032</v>
@@ -909,7 +907,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>74570</v>
@@ -926,7 +924,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>15488</v>
@@ -943,7 +941,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>35726</v>
@@ -960,7 +958,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>12325</v>
@@ -977,7 +975,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>15436</v>
@@ -994,7 +992,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>202699</v>
@@ -1011,7 +1009,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>22003</v>
@@ -1028,7 +1026,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>13038</v>
@@ -1045,7 +1043,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>66356</v>
@@ -1062,7 +1060,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>22160</v>
@@ -1079,7 +1077,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>49714</v>
@@ -1096,7 +1094,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>9473</v>
@@ -1113,7 +1111,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>211237</v>
@@ -1130,7 +1128,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>15731</v>
@@ -1147,7 +1145,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>10645</v>
@@ -1164,7 +1162,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>34143</v>
@@ -1181,7 +1179,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>52072</v>
@@ -1198,7 +1196,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>13407</v>
@@ -1215,7 +1213,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>177886</v>
@@ -1232,7 +1230,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>26310</v>
@@ -1249,7 +1247,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
         <v>9949</v>
@@ -1266,7 +1264,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
         <v>5792</v>
@@ -1283,7 +1281,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
         <v>10479</v>
@@ -1300,7 +1298,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
         <v>15678</v>
@@ -1317,7 +1315,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>9737</v>
@@ -1334,7 +1332,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>10796</v>
@@ -1351,7 +1349,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
         <v>18956</v>
@@ -1368,7 +1366,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>11309</v>
@@ -1385,7 +1383,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
         <v>22828</v>
@@ -1402,7 +1400,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
         <v>22340</v>
@@ -1419,7 +1417,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
         <v>73278</v>
@@ -1436,7 +1434,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
         <v>20306</v>
@@ -1453,7 +1451,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>59514</v>
@@ -1470,7 +1468,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
         <v>17964</v>
@@ -1487,7 +1485,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
         <v>79520</v>
@@ -1504,7 +1502,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
         <v>81763</v>
@@ -1521,7 +1519,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
         <v>13835</v>
@@ -1538,7 +1536,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
         <v>59903</v>
@@ -1555,7 +1553,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
         <v>19023</v>
@@ -1572,7 +1570,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
         <v>64598</v>
@@ -1589,7 +1587,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
         <v>8316</v>
@@ -1606,7 +1604,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
         <v>19452</v>
@@ -1623,7 +1621,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2">
         <v>41371</v>
@@ -1640,7 +1638,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2">
         <v>5463</v>
@@ -1657,7 +1655,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="2">
         <v>129034</v>
@@ -1674,7 +1672,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2">
         <v>5041</v>
@@ -1691,7 +1689,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2">
         <v>14077</v>
@@ -1708,7 +1706,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2">
         <v>27867</v>
@@ -1725,7 +1723,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
         <v>5135</v>
@@ -1742,7 +1740,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2">
         <v>14628</v>
@@ -1759,7 +1757,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2">
         <v>7086</v>
@@ -1776,7 +1774,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2">
         <v>12357</v>
@@ -1793,7 +1791,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2">
         <v>20593</v>
@@ -1810,7 +1808,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2">
         <v>9157</v>
@@ -1827,7 +1825,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
         <v>45990</v>
@@ -1844,7 +1842,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2">
         <v>17022</v>
@@ -1861,7 +1859,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2">
         <v>16412</v>
@@ -1878,7 +1876,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2">
         <v>41472</v>
@@ -1895,7 +1893,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
         <v>22278</v>
@@ -1912,7 +1910,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2">
         <v>18896</v>
@@ -1929,7 +1927,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2">
         <v>22609</v>
@@ -1946,7 +1944,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2">
         <v>17086</v>
@@ -1963,7 +1961,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2">
         <v>20423</v>
@@ -1980,7 +1978,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2">
         <v>111097</v>
@@ -1997,7 +1995,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2">
         <v>124833</v>
@@ -2014,7 +2012,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2">
         <v>55194</v>
@@ -2031,7 +2029,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2">
         <v>30458</v>
@@ -2048,7 +2046,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2">
         <v>21669</v>
@@ -2065,7 +2063,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2">
         <v>11650</v>
@@ -2082,7 +2080,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2">
         <v>4632</v>
@@ -2099,7 +2097,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2">
         <v>87988</v>
@@ -2116,7 +2114,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2">
         <v>22307</v>
@@ -2133,7 +2131,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2">
         <v>36759</v>
@@ -2150,7 +2148,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2">
         <v>13452</v>
@@ -2167,7 +2165,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2">
         <v>35757</v>
@@ -2184,7 +2182,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2">
         <v>8462</v>
